--- a/Gannt Actualizado 17.04.xlsx
+++ b/Gannt Actualizado 17.04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{D5518063-EC20-064F-B2E6-C63A51ED1CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D23B32-1CFA-F542-B76F-086B972C9296}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{D5518063-EC20-064F-B2E6-C63A51ED1CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A39ADD9A-68BA-43E1-B2DA-EA59F2A986F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
   <si>
     <t>Nombre de la tarea</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Servidores Mosquitto y Cloud</t>
+  </si>
+  <si>
+    <t>Inés, Daniel y David</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,6 +380,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -419,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -879,11 +891,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,9 +1049,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,15 +1100,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,30 +1133,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1175,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF76A5AF"/>
-          <bgColor rgb="FF76A5AF"/>
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1432,7 +1488,7 @@
     <text xml:space="preserve">Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.
 </text>
   </threadedComment>
-  <threadedComment ref="J14" dT="2023-03-21T10:41:10.50" personId="{B4FA5506-0441-694A-AB83-ED7BC5BE4D8C}" id="{85D1C4FB-D7AF-DF43-AC6A-B1F5A6A6A624}">
+  <threadedComment ref="J14" dT="2023-03-21T10:41:10.50" personId="{B4FA5506-0441-694A-AB83-ED7BC5BE4D8C}" id="{85D1C4FB-D7AF-DF43-AC6A-B1F5A6A6A624}" done="1">
     <text>Problemas con la BladeRF: Estaba en modo distinto y no conseguimos instalar el software en la SDR.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1443,26 +1499,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:X48"/>
+  <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="114" zoomScaleNormal="81" zoomScalePageLayoutView="114" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="81" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="24" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="24" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
+    <row r="1" spans="2:24" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="85"/>
       <c r="C1" s="7"/>
       <c r="G1" s="21" t="s">
         <v>72</v>
@@ -1515,11 +1571,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="64" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="77" t="s">
+    <row r="2" spans="2:24" ht="63" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1584,11 +1640,11 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
+    <row r="3" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="48"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -1611,11 +1667,11 @@
       <c r="W3" s="50"/>
       <c r="X3" s="51"/>
     </row>
-    <row r="4" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
+    <row r="4" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
@@ -1638,8 +1694,8 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="61" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1675,8 +1731,8 @@
       <c r="W5" s="32"/>
       <c r="X5" s="33"/>
     </row>
-    <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="81"/>
+    <row r="6" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="62"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1710,8 +1766,8 @@
       <c r="W6" s="4"/>
       <c r="X6" s="35"/>
     </row>
-    <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="82"/>
+    <row r="7" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="63"/>
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1801,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="35"/>
     </row>
-    <row r="8" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1838,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="35"/>
     </row>
-    <row r="9" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>61</v>
       </c>
@@ -1819,7 +1875,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="35"/>
     </row>
-    <row r="10" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="64" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1912,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="35"/>
     </row>
-    <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
       <c r="C11" s="12" t="s">
         <v>20</v>
@@ -1891,7 +1947,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="12" t="s">
         <v>21</v>
@@ -1926,8 +1982,8 @@
       <c r="W12" s="4"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="63"/>
+    <row r="13" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="66"/>
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +2017,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2056,8 @@
       <c r="W14" s="4"/>
       <c r="X14" s="35"/>
     </row>
-    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="83" t="s">
+    <row r="15" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="67" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2037,8 +2093,8 @@
       <c r="W15" s="4"/>
       <c r="X15" s="35"/>
     </row>
-    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="84"/>
+    <row r="16" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="68"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -2072,11 +2128,11 @@
       <c r="W16" s="4"/>
       <c r="X16" s="35"/>
     </row>
-    <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="79" t="s">
+    <row r="17" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="34">
         <v>45005</v>
       </c>
@@ -2087,7 +2143,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2107,154 +2163,151 @@
       <c r="W17" s="4"/>
       <c r="X17" s="35"/>
     </row>
-    <row r="18" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="86">
+        <v>45033</v>
+      </c>
+      <c r="E18" s="87">
+        <v>45040</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+    </row>
+    <row r="19" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D19" s="36">
         <v>45026</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E19" s="38">
         <v>45040</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="40"/>
-    </row>
-    <row r="19" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="66" t="s">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+    </row>
+    <row r="20" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="57" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D21" s="42">
         <v>44970</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E21" s="43">
         <v>44970</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F21" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="33"/>
-    </row>
-    <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="12" t="s">
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="33"/>
+    </row>
+    <row r="22" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="66"/>
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D22" s="34">
         <v>44970</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>44970</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="35"/>
-    </row>
-    <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="34">
-        <v>44977</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44977</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>70</v>
@@ -2280,10 +2333,12 @@
       <c r="W22" s="4"/>
       <c r="X22" s="35"/>
     </row>
-    <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="65"/>
+    <row r="23" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="64" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="34">
         <v>44977</v>
@@ -2315,10 +2370,10 @@
       <c r="W23" s="4"/>
       <c r="X23" s="35"/>
     </row>
-    <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="63"/>
+    <row r="24" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="65"/>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="34">
         <v>44977</v>
@@ -2350,18 +2405,16 @@
       <c r="W24" s="4"/>
       <c r="X24" s="35"/>
     </row>
-    <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="64" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="66"/>
       <c r="C25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="34">
-        <v>44984</v>
+        <v>44977</v>
       </c>
       <c r="E25" s="2">
-        <v>44984</v>
+        <v>44977</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>70</v>
@@ -2387,10 +2440,12 @@
       <c r="W25" s="4"/>
       <c r="X25" s="35"/>
     </row>
-    <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="65"/>
+    <row r="26" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="34">
         <v>44984</v>
@@ -2422,16 +2477,16 @@
       <c r="W26" s="4"/>
       <c r="X26" s="35"/>
     </row>
-    <row r="27" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B27" s="63"/>
+    <row r="27" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
       <c r="C27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="34">
-        <v>44991</v>
+        <v>44984</v>
       </c>
       <c r="E27" s="2">
-        <v>45005</v>
+        <v>44984</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>70</v>
@@ -2457,24 +2512,22 @@
       <c r="W27" s="4"/>
       <c r="X27" s="35"/>
     </row>
-    <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
-        <v>57</v>
-      </c>
+    <row r="28" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="66"/>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="34">
-        <v>44998</v>
+        <v>44991</v>
       </c>
       <c r="E28" s="2">
-        <v>45019</v>
+        <v>45005</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2494,12 +2547,12 @@
       <c r="W28" s="4"/>
       <c r="X28" s="35"/>
     </row>
-    <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>77</v>
+    <row r="29" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="34">
         <v>44998</v>
@@ -2531,146 +2584,148 @@
       <c r="W29" s="4"/>
       <c r="X29" s="35"/>
     </row>
-    <row r="30" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="34">
+        <v>44998</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45019</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="35"/>
+    </row>
+    <row r="31" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D31" s="36">
         <v>45019</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E31" s="38">
         <v>45040</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F31" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G31" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
-    </row>
-    <row r="31" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="68" t="s">
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="40"/>
+    </row>
+    <row r="32" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="57" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C33" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D33" s="42">
         <v>45040</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E33" s="43">
         <v>45060</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F33" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="33"/>
-    </row>
-    <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="65"/>
-      <c r="C33" s="12" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+    </row>
+    <row r="34" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="65"/>
+      <c r="C34" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="34">
-        <v>45040</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45060</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="35"/>
-    </row>
-    <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="63"/>
-      <c r="C34" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D34" s="34">
         <v>45040</v>
@@ -2702,12 +2757,10 @@
       <c r="W34" s="4"/>
       <c r="X34" s="35"/>
     </row>
-    <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="64" t="s">
-        <v>42</v>
-      </c>
+    <row r="35" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="66"/>
       <c r="C35" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="34">
         <v>45040</v>
@@ -2739,10 +2792,12 @@
       <c r="W35" s="4"/>
       <c r="X35" s="35"/>
     </row>
-    <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="65"/>
+    <row r="36" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="64" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="34">
         <v>45040</v>
@@ -2774,10 +2829,10 @@
       <c r="W36" s="4"/>
       <c r="X36" s="35"/>
     </row>
-    <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="63"/>
+    <row r="37" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="65"/>
       <c r="C37" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="34">
         <v>45040</v>
@@ -2809,12 +2864,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="35"/>
     </row>
-    <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="64" t="s">
-        <v>46</v>
-      </c>
+    <row r="38" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="66"/>
       <c r="C38" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="34">
         <v>45040</v>
@@ -2846,10 +2899,12 @@
       <c r="W38" s="4"/>
       <c r="X38" s="35"/>
     </row>
-    <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="65"/>
+    <row r="39" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="64" t="s">
+        <v>46</v>
+      </c>
       <c r="C39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="34">
         <v>45040</v>
@@ -2881,156 +2936,156 @@
       <c r="W39" s="4"/>
       <c r="X39" s="35"/>
     </row>
-    <row r="40" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="58"/>
-      <c r="C40" s="17" t="s">
+    <row r="40" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="65"/>
+      <c r="C40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="34">
+        <v>45040</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45060</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="35"/>
+    </row>
+    <row r="41" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="69"/>
+      <c r="C41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D41" s="36">
         <v>45040</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E41" s="38">
         <v>45060</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G41" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="40"/>
-    </row>
-    <row r="41" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="66" t="s">
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="40"/>
+    </row>
+    <row r="42" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="57" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C43" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D43" s="42">
         <v>44970</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E43" s="43">
         <v>45083</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="33"/>
-    </row>
-    <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="63"/>
-      <c r="C43" s="20" t="s">
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="33"/>
+    </row>
+    <row r="44" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="66"/>
+      <c r="C44" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="34">
-        <v>44970</v>
-      </c>
-      <c r="E43" s="2">
-        <v>45083</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="35"/>
-    </row>
-    <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="62"/>
       <c r="D44" s="34">
         <v>44970</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>63</v>
+      <c r="E44" s="2">
+        <v>45083</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3050,205 +3105,241 @@
       <c r="W44" s="4"/>
       <c r="X44" s="35"/>
     </row>
-    <row r="45" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="71" t="s">
+    <row r="45" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="34">
+        <v>44970</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="35"/>
+    </row>
+    <row r="46" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="36">
+      <c r="C46" s="80"/>
+      <c r="D46" s="36">
         <v>44970</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E46" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F46" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
-    </row>
-    <row r="46" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="73" t="s">
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="40"/>
+    </row>
+    <row r="47" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="57" t="s">
+      <c r="C47" s="82"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C48" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D48" s="42">
         <v>44970</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E48" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F48" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G48" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="33"/>
-    </row>
-    <row r="48" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="58"/>
-      <c r="C48" s="17" t="s">
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="33"/>
+    </row>
+    <row r="49" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="69"/>
+      <c r="C49" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D49" s="36">
         <v>44970</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E49" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F49" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="40"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="D3:X3">
+  <conditionalFormatting sqref="D3:X3 H4:X17 H19:X49 S18:X18 H18:Q18">
     <cfRule type="notContainsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:X35 H37:X42 H44:X48 D3:X3">
+  <conditionalFormatting sqref="D3:X3 H4:X17 H19:X36 H18:P18 S18:X18 H38:X43 H45:X49">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($D3&lt;=D$2,$E3&gt;=D$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:X48">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
-      <formula>LEN(TRIM(H4))&gt;0</formula>
+  <conditionalFormatting sqref="H37:X37">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND($D38&lt;=H$2,$E37&gt;=H$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:X36">
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND($D37&lt;=H$2,$E36&gt;=H$2)</formula>
+  <conditionalFormatting sqref="H44:X44">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND($D44&lt;=H$2,$E46&gt;=H$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:X43">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($D43&lt;=H$2,$E45&gt;=H$2)</formula>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>AND($D18&lt;=R$2,$E18&gt;=R$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E43:E44 D43:D48 G46 F41:G45 F48:G48 F46:F47 D4:E42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E44:E45 D44:D49 G47 F42:G46 F49:G49 F47:F48 D4:E43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(D4))), AND(ISNUMBER(D4), LEFT(CELL("format", D4))="D"))</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Negrita"&amp;20&amp;UDiagrama de Gannt</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Assignees and Status'!$A$2:$A$35</xm:f>
@@ -3259,13 +3350,19 @@
           <x14:formula1>
             <xm:f>'Assignees and Status'!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G40</xm:sqref>
+          <xm:sqref>G4:G41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Assignees and Status'!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F40</xm:sqref>
+          <xm:sqref>F5:F17 F19:F41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F388AF0A-1B34-40AF-AA74-DB1F263F441F}">
+          <x14:formula1>
+            <xm:f>'Assignees and Status'!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3278,19 +3375,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
@@ -3306,7 +3403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3314,7 +3411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -3322,7 +3419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -3330,20 +3427,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
